--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_1_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_1_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3241796.303118283</v>
+        <v>3239908.721601881</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800618</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -665,10 +665,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>320.8865572837388</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>309.7029429582361</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773041</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>52.71481492008162</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>234.4970761400735</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,19 +896,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>280.1033070984082</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>32.56842626327222</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>55.90301252244922</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>42.93165166918606</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,10 +1136,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>163.9206648785247</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1148,10 +1148,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>231.4408706859764</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481177</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229335</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>25.31590541686258</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>156.1271626621468</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,10 +1528,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>33.35146980185837</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>114.1973776341511</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>61.32489541078237</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>77.86828753831509</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -1898,7 +1898,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2059,16 +2059,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>149.0799667719506</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>118.2422920270587</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>161.4046520073175</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>21.96549637701607</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>97.12772045570675</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2539,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>211.2541671901476</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>119.3786445880206</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>203.843519215192</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
         <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965524</v>
+        <v>21.84773706512419</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801206</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>55.54410994981597</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897901</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523567</v>
+        <v>54.76109577523568</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550461</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3436,13 +3436,13 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
         <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3557,7 +3557,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3673,13 +3673,13 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
         <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692856</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373699</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1662.48357412947</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1662.48357412947</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1662.48357412947</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1276.695321531225</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
         <v>952.5674858910851</v>
@@ -4325,31 +4325,31 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V2" t="n">
         <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>1349.6523186161</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.48357412947</v>
+        <v>1349.6523186161</v>
       </c>
       <c r="Y2" t="n">
-        <v>1662.48357412947</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4383,67 +4383,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4452,7 +4452,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>257.3069090307624</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C4" t="n">
-        <v>257.3069090307624</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D4" t="n">
-        <v>107.1902696184267</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E4" t="n">
-        <v>107.1902696184267</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F4" t="n">
-        <v>107.1902696184267</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>107.1902696184267</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4495,43 +4495,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610022</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610022</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="W4" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X4" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y4" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1491.915471247702</v>
+        <v>847.8148076117928</v>
       </c>
       <c r="C5" t="n">
-        <v>1491.915471247702</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D5" t="n">
-        <v>1133.649772640952</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>747.8615200427075</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>336.8756152531</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.654643287636</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.515311311824</v>
+        <v>1234.414647675915</v>
       </c>
     </row>
     <row r="6">
@@ -4635,7 +4635,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4650,13 +4650,13 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4668,7 +4668,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>671.6612947898188</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U7" t="n">
-        <v>671.6612947898188</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V7" t="n">
-        <v>671.6612947898188</v>
+        <v>325.2978374347314</v>
       </c>
       <c r="W7" t="n">
-        <v>671.6612947898188</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>443.6717438918015</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>609.3508327416157</v>
+        <v>1216.807289433105</v>
       </c>
       <c r="C8" t="n">
-        <v>240.388315801204</v>
+        <v>847.8447724926937</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097703</v>
+        <v>847.8447724926937</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>462.0565198944494</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>455.111019145246</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>441.1876150838369</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548714</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862884</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834947</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>1993.546461473039</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312743</v>
+        <v>1993.546461473039</v>
       </c>
       <c r="W8" t="n">
-        <v>1759.555763042629</v>
+        <v>1993.546461473039</v>
       </c>
       <c r="X8" t="n">
-        <v>1386.090004781549</v>
+        <v>1993.546461473039</v>
       </c>
       <c r="Y8" t="n">
-        <v>995.9506728057374</v>
+        <v>1603.407129497227</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761947</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="C10" t="n">
-        <v>377.5443364482878</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="D10" t="n">
-        <v>227.4276970359521</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="E10" t="n">
-        <v>79.51460345355898</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594899</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.128984206434</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.128984206434</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.128984206434</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036442</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,7 +5024,7 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
         <v>904.3190116155888</v>
@@ -5036,34 +5036,34 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.043068977053</v>
+        <v>1427.741252113634</v>
       </c>
       <c r="N12" t="n">
-        <v>1999.905696641086</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>734.8632439327645</v>
+        <v>130.9054447954964</v>
       </c>
       <c r="C13" t="n">
-        <v>565.9270610048577</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1183.645373974312</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1183.645373974312</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>1183.645373974312</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W13" t="n">
-        <v>1183.645373974312</v>
+        <v>130.9054447954964</v>
       </c>
       <c r="X13" t="n">
-        <v>955.6558230762946</v>
+        <v>130.9054447954964</v>
       </c>
       <c r="Y13" t="n">
-        <v>734.8632439327645</v>
+        <v>130.9054447954964</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5276,10 +5276,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5318,10 +5318,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5361,22 +5361,22 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>709.4934589365143</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1016.813592216476</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N15" t="n">
-        <v>1346.676219880509</v>
+        <v>1646.274692278279</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2315.738453580939</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>564.4843764226429</v>
+        <v>175.8719273575741</v>
       </c>
       <c r="C16" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5437,10 +5437,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
         <v>779.063975947119</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U16" t="n">
-        <v>1075.21084526296</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V16" t="n">
-        <v>1075.21084526296</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="W16" t="n">
-        <v>1075.21084526296</v>
+        <v>585.5099430858312</v>
       </c>
       <c r="X16" t="n">
-        <v>847.2212943649431</v>
+        <v>357.5203921878139</v>
       </c>
       <c r="Y16" t="n">
-        <v>626.428715221413</v>
+        <v>357.5203921878139</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5592,28 +5592,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>1163.495507227045</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M18" t="n">
-        <v>1470.815640507006</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N18" t="n">
-        <v>1800.678268171039</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O18" t="n">
-        <v>2080.218333389736</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C19" t="n">
         <v>97.21709146028584</v>
@@ -5674,49 +5674,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609662</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V19" t="n">
-        <v>835.416391538794</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018333</v>
+        <v>385.5899330013833</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>385.5899330013833</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="20">
@@ -5732,37 +5732,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5835,16 +5835,16 @@
         <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>1099.417155020476</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M21" t="n">
-        <v>1406.737288300438</v>
+        <v>1564.731711769082</v>
       </c>
       <c r="N21" t="n">
-        <v>1736.599915964471</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
         <v>2536.440602918915</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>260.2520934878793</v>
+        <v>415.5090525528011</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>415.5090525528011</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5911,19 +5911,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1476.728900480108</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1476.728900480108</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609664</v>
+        <v>1187.600261693666</v>
       </c>
       <c r="V22" t="n">
-        <v>731.3177283550796</v>
+        <v>932.9157734877791</v>
       </c>
       <c r="W22" t="n">
-        <v>441.900558318119</v>
+        <v>643.4986034508185</v>
       </c>
       <c r="X22" t="n">
-        <v>441.900558318119</v>
+        <v>415.5090525528011</v>
       </c>
       <c r="Y22" t="n">
-        <v>441.900558318119</v>
+        <v>415.5090525528011</v>
       </c>
     </row>
     <row r="23">
@@ -5966,52 +5966,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6020,16 +6020,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6063,25 +6063,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
         <v>549.5984374701561</v>
       </c>
       <c r="L24" t="n">
-        <v>1163.495507227045</v>
+        <v>1024.771599890052</v>
       </c>
       <c r="M24" t="n">
-        <v>1470.815640507006</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N24" t="n">
-        <v>1800.678268171039</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O24" t="n">
-        <v>2080.218333389736</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
         <v>2536.440602918915</v>
@@ -6133,19 +6133,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
@@ -6169,22 +6169,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1089.812348494162</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765185</v>
+        <v>800.6837097077201</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706317</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W25" t="n">
-        <v>531.3977182706317</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
         <v>318.0096706038159</v>
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6221,55 +6221,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6300,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>217.8015809431349</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>217.8015809431349</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262961</v>
+        <v>1164.055751909233</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>874.9271131227916</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>620.2426249169048</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>620.2426249169048</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>620.2426249169048</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>399.4500457733747</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
@@ -6458,13 +6458,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6479,34 +6479,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6528,37 +6528,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>339.7502131046252</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>953.6472828615139</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,43 +6595,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>565.4200295030878</v>
+        <v>439.532429954219</v>
       </c>
       <c r="C31" t="n">
-        <v>452.2447118565519</v>
+        <v>326.3571123076829</v>
       </c>
       <c r="D31" t="n">
-        <v>357.888937725587</v>
+        <v>304.2886910297803</v>
       </c>
       <c r="E31" t="n">
-        <v>265.7367094245648</v>
+        <v>304.2886910297803</v>
       </c>
       <c r="F31" t="n">
-        <v>209.6315478590944</v>
+        <v>304.2886910297803</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>191.8742346309717</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
         <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933503</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667512</v>
+        <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962055</v>
+        <v>997.6688721962053</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
         <v>1611.390407353693</v>
@@ -6658,10 +6658,10 @@
         <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818937</v>
+        <v>902.6804289818936</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652471</v>
+        <v>730.451743365247</v>
       </c>
       <c r="Y31" t="n">
         <v>565.4200295030878</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805474</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6777,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
         <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,7 +6856,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254958</v>
@@ -6865,7 +6865,7 @@
         <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6901,7 +6901,7 @@
         <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6914,25 +6914,25 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
@@ -6941,40 +6941,40 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7011,28 +7011,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
@@ -7114,19 +7114,19 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
         <v>1304.027639859417</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,40 +7163,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,19 +7205,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7269,10 +7269,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103125</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525396</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254953</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7366,16 +7366,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7400,19 +7400,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7421,7 +7421,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643324</v>
@@ -7430,31 +7430,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7488,22 +7488,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>1912.313820009359</v>
       </c>
       <c r="P42" t="n">
         <v>2317.834075963124</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506728</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7570,7 +7570,7 @@
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7609,7 +7609,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y43" t="n">
         <v>772.2886129010319</v>
@@ -7622,31 +7622,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155909</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7661,37 +7661,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1321.461721072713</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q45" t="n">
         <v>2612.943493278838</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982973</v>
+        <v>139.931591798297</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7831,25 +7831,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8307,7 +8307,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516231</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>76.43196988338491</v>
       </c>
       <c r="O12" t="n">
-        <v>52.49733361305277</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9009,25 +9009,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>176.7176547498455</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>5.100663089360268</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>433.7515527292973</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>253.7371603504743</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9416,7 +9416,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714832</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9483,19 +9483,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>306.1147370139963</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>158.8724419039331</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9720,7 +9720,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>230.7151863772036</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,10 +9729,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>253.7371603504743</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,16 +9966,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>308.1251096272039</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,16 +10188,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,19 +10437,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>349.7653003338569</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10665,28 +10665,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>392.1113620226437</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>169.2863157167183</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627466</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11136,16 +11136,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208061</v>
+        <v>202.5230052237941</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11382,19 +11382,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>93.88676507992591</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208061</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23416,10 +23416,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>133.8953512967695</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,10 +23428,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>107.3501834242381</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>118.5070847711549</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>89.37853356031275</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,7 +23668,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23890,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,16 +23947,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>103.0576765518773</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>100.3423613250361</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>5.842169091310325</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,10 +24139,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24175,10 +24175,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>175.9553136065872</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>124.4198406026825</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>14.45548819888958</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>29.23682843019178</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>82.39383318338525</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>71.56447932453105</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801206</v>
       </c>
       <c r="F31" t="n">
-        <v>34.67368144455816</v>
+        <v>90.21779139437413</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897901</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571486</v>
+        <v>55.21598883571487</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>730532.6984801933</v>
+        <v>730532.6984801932</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>730532.698480193</v>
+        <v>730532.6984801932</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>730532.698480193</v>
+        <v>730532.6984801932</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>730532.6984801932</v>
+        <v>730532.6984801933</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>730532.6984801932</v>
+        <v>730532.6984801933</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>759749.8920541814</v>
+        <v>759749.8920541815</v>
       </c>
     </row>
     <row r="12">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>677359.4601380331</v>
+      </c>
+      <c r="C2" t="n">
         <v>677359.4601380335</v>
       </c>
-      <c r="C2" t="n">
-        <v>677359.4601380333</v>
-      </c>
       <c r="D2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="E2" t="n">
         <v>645197.9485672194</v>
       </c>
       <c r="F2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672197</v>
       </c>
       <c r="G2" t="n">
         <v>645197.9485672194</v>
       </c>
       <c r="H2" t="n">
-        <v>645197.9485672195</v>
+        <v>645197.9485672194</v>
       </c>
       <c r="I2" t="n">
-        <v>645197.9485672197</v>
+        <v>645197.9485672194</v>
       </c>
       <c r="J2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672191</v>
       </c>
       <c r="K2" t="n">
-        <v>671256.5266196955</v>
+        <v>671256.5266196958</v>
       </c>
       <c r="L2" t="n">
         <v>677359.4601380337</v>
       </c>
       <c r="M2" t="n">
-        <v>677359.4601380344</v>
+        <v>677359.4601380345</v>
       </c>
       <c r="N2" t="n">
-        <v>677359.460138034</v>
+        <v>677359.4601380338</v>
       </c>
       <c r="O2" t="n">
-        <v>677359.4601380343</v>
+        <v>677359.4601380337</v>
       </c>
       <c r="P2" t="n">
         <v>677359.4601380336</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768965</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,25 +26384,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284565</v>
+        <v>44162.6053028457</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086684</v>
+        <v>10342.90680086681</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>44162.60530284567</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
+        <v>7916.731656007496</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7916.731656007497</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7916.731656007497</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="J4" t="n">
         <v>7916.731656007498</v>
       </c>
-      <c r="G4" t="n">
-        <v>7916.731656007493</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7916.731656007484</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7916.731656007487</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7916.731656007456</v>
-      </c>
       <c r="K4" t="n">
-        <v>26081.35417020399</v>
+        <v>26081.35417020409</v>
       </c>
       <c r="L4" t="n">
+        <v>30335.51889732796</v>
+      </c>
+      <c r="M4" t="n">
+        <v>30335.51889732794</v>
+      </c>
+      <c r="N4" t="n">
         <v>30335.51889732797</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
+        <v>30335.51889732797</v>
+      </c>
+      <c r="P4" t="n">
         <v>30335.51889732796</v>
-      </c>
-      <c r="N4" t="n">
-        <v>30335.51889732798</v>
-      </c>
-      <c r="O4" t="n">
-        <v>30335.51889732792</v>
-      </c>
-      <c r="P4" t="n">
-        <v>30335.51889732795</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340943</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26488,28 +26488,28 @@
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022278</v>
       </c>
       <c r="L5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002538</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-143384.5458558413</v>
+        <v>-143384.5458558417</v>
       </c>
       <c r="C6" t="n">
-        <v>446583.3333587031</v>
+        <v>446583.3333587033</v>
       </c>
       <c r="D6" t="n">
-        <v>446583.3333587031</v>
+        <v>446583.3333587034</v>
       </c>
       <c r="E6" t="n">
-        <v>20133.8544855993</v>
+        <v>20036.39535962665</v>
       </c>
       <c r="F6" t="n">
-        <v>545293.8909624954</v>
+        <v>545196.4318365235</v>
       </c>
       <c r="G6" t="n">
-        <v>545293.8909624954</v>
+        <v>545196.4318365232</v>
       </c>
       <c r="H6" t="n">
-        <v>545293.8909624955</v>
+        <v>545196.4318365232</v>
       </c>
       <c r="I6" t="n">
-        <v>545293.8909624956</v>
+        <v>545196.4318365232</v>
       </c>
       <c r="J6" t="n">
-        <v>368870.6717699023</v>
+        <v>368773.2126439298</v>
       </c>
       <c r="K6" t="n">
-        <v>504384.3586164229</v>
+        <v>504365.8648784889</v>
       </c>
       <c r="L6" t="n">
         <v>538965.9286198135</v>
       </c>
       <c r="M6" t="n">
-        <v>414507.820186844</v>
+        <v>414507.8201868439</v>
       </c>
       <c r="N6" t="n">
-        <v>549308.8354206806</v>
+        <v>549308.8354206805</v>
       </c>
       <c r="O6" t="n">
-        <v>549308.8354206808</v>
+        <v>549308.8354206803</v>
       </c>
       <c r="P6" t="n">
-        <v>505146.2301178345</v>
+        <v>505146.2301178346</v>
       </c>
     </row>
   </sheetData>
@@ -26707,13 +26707,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>55.20325662855712</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
         <v>68.13189012964067</v>
@@ -26722,7 +26722,7 @@
         <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964064</v>
@@ -26741,10 +26741,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170864</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26759,25 +26759,25 @@
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26926,16 +26926,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108355</v>
+        <v>12.92863350108352</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370139</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.926370499018</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.926370499018</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855712</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.926370499018</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,10 +27385,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>85.98948845797264</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>39.53802575917695</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-2.202682480856311e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27552,7 +27552,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>103.4560739217135</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>52.02592219651751</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,19 +27616,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>133.6808629223868</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>353.6695123927814</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27819,28 +27819,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>169.1320929356351</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>243.5913466674049</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,10 +27856,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>190.7623767421583</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>92.48190207838073</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>120.1051426060687</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853703</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491434</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>56.01837628787209</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554463</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119864</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633791</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.6043567772738</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473549</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141104</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188909</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396472</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034978</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619149</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078606</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644438</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302234</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175838</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383795</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678004</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34296,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34793,7 +34793,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35018,7 +35018,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35027,7 +35027,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770686</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279169</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713948</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873144</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>409.6265432813979</v>
       </c>
       <c r="O12" t="n">
-        <v>334.8610358541609</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35729,25 +35729,25 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>425.9753597058698</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
         <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>212.1940780208849</v>
       </c>
       <c r="Q15" t="n">
         <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>766.9461261273101</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>460.8305752819989</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36136,7 +36136,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109128</v>
       </c>
       <c r="Q20" t="n">
         <v>350.4995841502048</v>
@@ -36203,19 +36203,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>555.3724419700205</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>492.0670153019459</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
         <v>88.0130327850741</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36364,7 +36364,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36440,7 +36440,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>479.9728913332278</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504662</v>
@@ -36449,10 +36449,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>460.8305752819989</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
         <v>88.0130327850741</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>590.488811868312</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>203.0727722009917</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412266</v>
+        <v>67.71102679412263</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
         <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
         <v>291.44060814916</v>
@@ -37008,7 +37008,7 @@
         <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043189</v>
+        <v>94.42895660043186</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>682.9598737318697</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,13 +37236,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>725.3059354206565</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K38" t="n">
         <v>528.689756130333</v>
@@ -37637,13 +37637,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>257.2993485017925</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,28 +37780,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523309</v>
+        <v>409.6164201553188</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38017,28 +38017,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>404.3111421303921</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523309</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,13 +38184,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
